--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N2">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O2">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P2">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q2">
-        <v>1943.583768507815</v>
+        <v>1161.352013535058</v>
       </c>
       <c r="R2">
-        <v>17492.25391657033</v>
+        <v>10452.16812181552</v>
       </c>
       <c r="S2">
-        <v>0.08140470459874939</v>
+        <v>0.05633911308128552</v>
       </c>
       <c r="T2">
-        <v>0.09188465352995745</v>
+        <v>0.06464137523337374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P3">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q3">
-        <v>1775.351114052388</v>
+        <v>1694.113602259743</v>
       </c>
       <c r="R3">
-        <v>15978.16002647149</v>
+        <v>15247.02242033769</v>
       </c>
       <c r="S3">
-        <v>0.07435847908395114</v>
+        <v>0.08218426170350319</v>
       </c>
       <c r="T3">
-        <v>0.08393130496966886</v>
+        <v>0.09429512479880735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N4">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O4">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P4">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q4">
-        <v>380.4269266691256</v>
+        <v>358.47709271458</v>
       </c>
       <c r="R4">
-        <v>3423.84234002213</v>
+        <v>3226.29383443122</v>
       </c>
       <c r="S4">
-        <v>0.01593373133111024</v>
+        <v>0.01739031854951661</v>
       </c>
       <c r="T4">
-        <v>0.01798502175046262</v>
+        <v>0.01995299615677857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N5">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O5">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P5">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q5">
-        <v>1682.018540628783</v>
+        <v>1498.461310442315</v>
       </c>
       <c r="R5">
-        <v>10092.1112437727</v>
+        <v>8990.767862653887</v>
       </c>
       <c r="S5">
-        <v>0.07044935476829443</v>
+        <v>0.07269284440293637</v>
       </c>
       <c r="T5">
-        <v>0.05301261629534236</v>
+        <v>0.0556033535121724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N6">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O6">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P6">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q6">
-        <v>666.7892016188551</v>
+        <v>296.7966056406834</v>
       </c>
       <c r="R6">
-        <v>6001.102814569696</v>
+        <v>2671.16945076615</v>
       </c>
       <c r="S6">
-        <v>0.02792767611405406</v>
+        <v>0.01439809578185864</v>
       </c>
       <c r="T6">
-        <v>0.03152305332087832</v>
+        <v>0.01651983251384091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N7">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O7">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P7">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q7">
-        <v>1053.593287545801</v>
+        <v>659.7438285224617</v>
       </c>
       <c r="R7">
-        <v>9482.339587912205</v>
+        <v>5937.694456702156</v>
       </c>
       <c r="S7">
-        <v>0.04412850720899931</v>
+        <v>0.03200526776258537</v>
       </c>
       <c r="T7">
-        <v>0.04980956095448349</v>
+        <v>0.03672163812555841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P8">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q8">
-        <v>962.3963973719686</v>
+        <v>962.3963973719685</v>
       </c>
       <c r="R8">
         <v>8661.567576347717</v>
       </c>
       <c r="S8">
-        <v>0.04030883345723452</v>
+        <v>0.04668744603586494</v>
       </c>
       <c r="T8">
-        <v>0.04549814675541064</v>
+        <v>0.05356741618452492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N9">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O9">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P9">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q9">
-        <v>206.2248423941074</v>
+        <v>203.644585645676</v>
       </c>
       <c r="R9">
-        <v>1856.023581546966</v>
+        <v>1832.801270811084</v>
       </c>
       <c r="S9">
-        <v>0.008637483317173763</v>
+        <v>0.009879136734916357</v>
       </c>
       <c r="T9">
-        <v>0.009749463079330327</v>
+        <v>0.01133494919847545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N10">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O10">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P10">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q10">
-        <v>911.80193653019</v>
+        <v>851.2497419578929</v>
       </c>
       <c r="R10">
-        <v>5470.81161918114</v>
+        <v>5107.498451747358</v>
       </c>
       <c r="S10">
-        <v>0.03818974437762152</v>
+        <v>0.0412955373682082</v>
       </c>
       <c r="T10">
-        <v>0.02873749904121474</v>
+        <v>0.03158729558073056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N11">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O11">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P11">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q11">
-        <v>361.4583731438611</v>
+        <v>168.6049764548367</v>
       </c>
       <c r="R11">
-        <v>3253.12535829475</v>
+        <v>1517.44478809353</v>
       </c>
       <c r="S11">
-        <v>0.01513925592880986</v>
+        <v>0.008179307155667814</v>
       </c>
       <c r="T11">
-        <v>0.0170882664899618</v>
+        <v>0.009384628796617859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N12">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O12">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P12">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q12">
-        <v>1581.299614328434</v>
+        <v>1314.364832980154</v>
       </c>
       <c r="R12">
-        <v>14231.6965289559</v>
+        <v>11829.28349682138</v>
       </c>
       <c r="S12">
-        <v>0.06623086180913686</v>
+        <v>0.06376201883004569</v>
       </c>
       <c r="T12">
-        <v>0.07475734750613569</v>
+        <v>0.07315813756037884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P13">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q13">
-        <v>1444.425538758202</v>
+        <v>1917.319913284256</v>
       </c>
       <c r="R13">
-        <v>12999.82984882382</v>
+        <v>17255.8792195583</v>
       </c>
       <c r="S13">
-        <v>0.06049805323686933</v>
+        <v>0.09301237019318381</v>
       </c>
       <c r="T13">
-        <v>0.06828650368927276</v>
+        <v>0.1067188884270926</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N14">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O14">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P14">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q14">
-        <v>309.515320188074</v>
+        <v>405.7078978653587</v>
       </c>
       <c r="R14">
-        <v>2785.637881692666</v>
+        <v>3651.371080788228</v>
       </c>
       <c r="S14">
-        <v>0.012963682665472</v>
+        <v>0.01968156327230329</v>
       </c>
       <c r="T14">
-        <v>0.01463261240318425</v>
+        <v>0.02258188400709759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N15">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O15">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P15">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q15">
-        <v>1368.49016373069</v>
+        <v>1695.889641618364</v>
       </c>
       <c r="R15">
-        <v>8210.94098238414</v>
+        <v>10175.33784971018</v>
       </c>
       <c r="S15">
-        <v>0.0573175899746886</v>
+        <v>0.08227042031957826</v>
       </c>
       <c r="T15">
-        <v>0.04313106080666936</v>
+        <v>0.06292931996536012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N16">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O16">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P16">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q16">
-        <v>542.4996464998111</v>
+        <v>335.9007574409456</v>
       </c>
       <c r="R16">
-        <v>4882.4968184983</v>
+        <v>3023.10681696851</v>
       </c>
       <c r="S16">
-        <v>0.02272195527859778</v>
+        <v>0.01629510306694243</v>
       </c>
       <c r="T16">
-        <v>0.02564715391558855</v>
+        <v>0.01869638718481385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N17">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O17">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P17">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q17">
-        <v>640.904950663625</v>
+        <v>457.4057484201276</v>
       </c>
       <c r="R17">
-        <v>3845.42970398175</v>
+        <v>2744.434490520765</v>
       </c>
       <c r="S17">
-        <v>0.0268435449143023</v>
+        <v>0.02218951177931864</v>
       </c>
       <c r="T17">
-        <v>0.02019956820369823</v>
+        <v>0.01697293974203229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.103086</v>
       </c>
       <c r="O18">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P18">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q18">
-        <v>585.429522822125</v>
+        <v>667.237229642039</v>
       </c>
       <c r="R18">
-        <v>3512.57713693275</v>
+        <v>4003.423377852233</v>
       </c>
       <c r="S18">
-        <v>0.02452002231182982</v>
+        <v>0.03236878508387905</v>
       </c>
       <c r="T18">
-        <v>0.01845113470017573</v>
+        <v>0.02475914946734094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N19">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O19">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P19">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q19">
-        <v>125.447384681125</v>
+        <v>141.188443274382</v>
       </c>
       <c r="R19">
-        <v>752.6843080867501</v>
+        <v>847.130659646292</v>
       </c>
       <c r="S19">
-        <v>0.005254215155590091</v>
+        <v>0.006849285641821422</v>
       </c>
       <c r="T19">
-        <v>0.003953757885967555</v>
+        <v>0.005239074821959495</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N20">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O20">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P20">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q20">
-        <v>554.652712820625</v>
+        <v>590.1783517773885</v>
       </c>
       <c r="R20">
-        <v>2218.6108512825</v>
+        <v>2360.713407109554</v>
       </c>
       <c r="S20">
-        <v>0.02323097207007593</v>
+        <v>0.02863053106327546</v>
       </c>
       <c r="T20">
-        <v>0.01165408931062819</v>
+        <v>0.01459981884992092</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N21">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O21">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P21">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q21">
-        <v>219.8765534529375</v>
+        <v>116.895197967065</v>
       </c>
       <c r="R21">
-        <v>1319.259320717625</v>
+        <v>701.3711878023901</v>
       </c>
       <c r="S21">
-        <v>0.009209269068844637</v>
+        <v>0.005670780004831778</v>
       </c>
       <c r="T21">
-        <v>0.006929906584849833</v>
+        <v>0.004337626184368748</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N22">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O22">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P22">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q22">
-        <v>1977.105852259517</v>
+        <v>1186.268841235722</v>
       </c>
       <c r="R22">
-        <v>17793.95267033566</v>
+        <v>10676.4195711215</v>
       </c>
       <c r="S22">
-        <v>0.08280873738064332</v>
+        <v>0.05754786973481867</v>
       </c>
       <c r="T22">
-        <v>0.09346943989267349</v>
+        <v>0.06602825706614487</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.103086</v>
       </c>
       <c r="O23">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P23">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q23">
-        <v>1805.971594475331</v>
+        <v>1730.460839136156</v>
       </c>
       <c r="R23">
-        <v>16253.74435027798</v>
+        <v>15574.1475522254</v>
       </c>
       <c r="S23">
-        <v>0.07564098164642892</v>
+        <v>0.08394752647138286</v>
       </c>
       <c r="T23">
-        <v>0.0853789154509722</v>
+        <v>0.09631822834557152</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N24">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O24">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P24">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q24">
-        <v>386.9883641043622</v>
+        <v>366.1682249894667</v>
       </c>
       <c r="R24">
-        <v>3482.89527693926</v>
+        <v>3295.5140249052</v>
       </c>
       <c r="S24">
-        <v>0.01620854936818856</v>
+        <v>0.0177634281372281</v>
       </c>
       <c r="T24">
-        <v>0.01829521954855294</v>
+        <v>0.02038108803723877</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N25">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O25">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P25">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q25">
-        <v>1711.029261599233</v>
+        <v>1530.610823986233</v>
       </c>
       <c r="R25">
-        <v>10266.1755695954</v>
+        <v>9183.6649439174</v>
       </c>
       <c r="S25">
-        <v>0.07166443446234298</v>
+        <v>0.07425247064713238</v>
       </c>
       <c r="T25">
-        <v>0.05392695474174426</v>
+        <v>0.05679632443132093</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N26">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O26">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P26">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q26">
-        <v>678.2896904702101</v>
+        <v>303.164381989889</v>
       </c>
       <c r="R26">
-        <v>6104.607214231891</v>
+        <v>2728.479437909</v>
       </c>
       <c r="S26">
-        <v>0.02840936047099048</v>
+        <v>0.01470700717791522</v>
       </c>
       <c r="T26">
-        <v>0.03206674917317655</v>
+        <v>0.01687426580847847</v>
       </c>
     </row>
   </sheetData>
